--- a/udregnet dagpenge.xlsx
+++ b/udregnet dagpenge.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,17 +360,43 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>obs_dp_q_test</t>
+          <t>obs_dp_q</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>wage_dp_q_test</t>
+          <t>max_dp_quarter</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>wage_dp_q</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tilpas_pr_q</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stat_tilpas_q</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stat_reg_q</t>
+        </is>
+      </c>
     </row>
     <row r="2">
+      <c r="A2">
+        <v>42.511</v>
+      </c>
       <c r="B2">
+        <v>42.510654</v>
+      </c>
+      <c r="C2">
         <v>42.511</v>
       </c>
     </row>
@@ -379,6 +405,9 @@
         <v>42.511</v>
       </c>
       <c r="B3">
+        <v>42.510654</v>
+      </c>
+      <c r="C3">
         <v>42.511</v>
       </c>
     </row>
@@ -387,468 +416,1150 @@
         <v>42.511</v>
       </c>
       <c r="B4">
+        <v>42.510654</v>
+      </c>
+      <c r="C4">
         <v>42.511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>42.511</v>
+        <v>43.6758014</v>
       </c>
       <c r="B5">
+        <v>43.355667</v>
+      </c>
+      <c r="C5">
         <v>44.168929</v>
+      </c>
+      <c r="D5">
+        <v>0.0104</v>
+      </c>
+      <c r="E5">
+        <v>0.0074</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>43.36122</v>
+        <v>43.6758014</v>
       </c>
       <c r="B6">
+        <v>43.355667</v>
+      </c>
+      <c r="C6">
         <v>44.168929</v>
+      </c>
+      <c r="D6">
+        <v>0.0104</v>
+      </c>
+      <c r="E6">
+        <v>0.0074</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>43.36122</v>
+        <v>43.6758014</v>
       </c>
       <c r="B7">
+        <v>43.355667</v>
+      </c>
+      <c r="C7">
         <v>44.168929</v>
+      </c>
+      <c r="D7">
+        <v>0.0104</v>
+      </c>
+      <c r="E7">
+        <v>0.0074</v>
+      </c>
+      <c r="F7">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>43.36122</v>
+        <v>43.6758014</v>
       </c>
       <c r="B8">
+        <v>43.355667</v>
+      </c>
+      <c r="C8">
         <v>44.168929</v>
+      </c>
+      <c r="D8">
+        <v>0.0104</v>
+      </c>
+      <c r="E8">
+        <v>0.0074</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>43.36122</v>
+        <v>44.77648303359</v>
       </c>
       <c r="B9">
+        <v>44.39568300000001</v>
+      </c>
+      <c r="C9">
         <v>46.06836299099999</v>
+      </c>
+      <c r="D9">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.0052</v>
+      </c>
+      <c r="F9">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>44.2284444</v>
+        <v>44.77648303359</v>
       </c>
       <c r="B10">
+        <v>44.39568300000001</v>
+      </c>
+      <c r="C10">
         <v>46.06836299099999</v>
+      </c>
+      <c r="D10">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.0052</v>
+      </c>
+      <c r="F10">
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>44.2284444</v>
+        <v>44.77648303359</v>
       </c>
       <c r="B11">
+        <v>44.39568300000001</v>
+      </c>
+      <c r="C11">
         <v>46.06836299099999</v>
+      </c>
+      <c r="D11">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.0052</v>
+      </c>
+      <c r="F11">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>44.2284444</v>
+        <v>44.77648303359</v>
       </c>
       <c r="B12">
+        <v>44.39568300000001</v>
+      </c>
+      <c r="C12">
         <v>46.06836299099999</v>
+      </c>
+      <c r="D12">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.0052</v>
+      </c>
+      <c r="F12">
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>44.2284444</v>
+        <v>46.34476173722796</v>
       </c>
       <c r="B13">
+        <v>45.69570300000001</v>
+      </c>
+      <c r="C13">
         <v>48.23410743907699</v>
+      </c>
+      <c r="D13">
+        <v>0.0179</v>
+      </c>
+      <c r="E13">
+        <v>0.0149</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>45.11301328800001</v>
+        <v>46.34476173722796</v>
       </c>
       <c r="B14">
+        <v>45.69570300000001</v>
+      </c>
+      <c r="C14">
         <v>48.23410743907699</v>
+      </c>
+      <c r="D14">
+        <v>0.0179</v>
+      </c>
+      <c r="E14">
+        <v>0.0149</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>45.11301328800001</v>
+        <v>46.34476173722796</v>
       </c>
       <c r="B15">
+        <v>45.69570300000001</v>
+      </c>
+      <c r="C15">
         <v>48.23410743907699</v>
+      </c>
+      <c r="D15">
+        <v>0.0179</v>
+      </c>
+      <c r="E15">
+        <v>0.0149</v>
+      </c>
+      <c r="F15">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>45.11301328800001</v>
+        <v>46.34476173722796</v>
       </c>
       <c r="B16">
+        <v>45.69570300000001</v>
+      </c>
+      <c r="C16">
         <v>48.23410743907699</v>
+      </c>
+      <c r="D16">
+        <v>0.0179</v>
+      </c>
+      <c r="E16">
+        <v>0.0149</v>
+      </c>
+      <c r="F16">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>45.11301328800001</v>
+        <v>48.21921216180634</v>
       </c>
       <c r="B17">
+        <v>47.124</v>
+      </c>
+      <c r="C17">
         <v>49.73185724416001</v>
+      </c>
+      <c r="D17">
+        <v>0.0234</v>
+      </c>
+      <c r="E17">
+        <v>0.0204</v>
+      </c>
+      <c r="F17">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>46.01527355376</v>
+        <v>48.21921216180634</v>
       </c>
       <c r="B18">
+        <v>47.124</v>
+      </c>
+      <c r="C18">
         <v>49.73185724416001</v>
+      </c>
+      <c r="D18">
+        <v>0.0234</v>
+      </c>
+      <c r="E18">
+        <v>0.0204</v>
+      </c>
+      <c r="F18">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>46.01527355376</v>
+        <v>48.21921216180634</v>
       </c>
       <c r="B19">
+        <v>47.124</v>
+      </c>
+      <c r="C19">
         <v>49.73185724416001</v>
+      </c>
+      <c r="D19">
+        <v>0.0234</v>
+      </c>
+      <c r="E19">
+        <v>0.0204</v>
+      </c>
+      <c r="F19">
+        <v>0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>46.01527355376</v>
+        <v>48.21921216180634</v>
       </c>
       <c r="B20">
+        <v>47.124</v>
+      </c>
+      <c r="C20">
         <v>49.73185724416001</v>
+      </c>
+      <c r="D20">
+        <v>0.0234</v>
+      </c>
+      <c r="E20">
+        <v>0.0204</v>
+      </c>
+      <c r="F20">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>46.01527355376</v>
+        <v>50.2705934061776</v>
       </c>
       <c r="B21">
+        <v>48.879</v>
+      </c>
+      <c r="C21">
         <v>51.47294997906266</v>
+      </c>
+      <c r="D21">
+        <v>0.0256</v>
+      </c>
+      <c r="E21">
+        <v>0.0226</v>
+      </c>
+      <c r="F21">
+        <v>0.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>46.9355790248352</v>
+        <v>50.2705934061776</v>
       </c>
       <c r="B22">
+        <v>48.879</v>
+      </c>
+      <c r="C22">
         <v>51.47294997906266</v>
+      </c>
+      <c r="D22">
+        <v>0.0256</v>
+      </c>
+      <c r="E22">
+        <v>0.0226</v>
+      </c>
+      <c r="F22">
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>46.9355790248352</v>
+        <v>50.2705934061776</v>
       </c>
       <c r="B23">
+        <v>48.879</v>
+      </c>
+      <c r="C23">
         <v>51.47294997906266</v>
+      </c>
+      <c r="D23">
+        <v>0.0256</v>
+      </c>
+      <c r="E23">
+        <v>0.0226</v>
+      </c>
+      <c r="F23">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>46.9355790248352</v>
+        <v>50.2705934061776</v>
       </c>
       <c r="B24">
+        <v>48.879</v>
+      </c>
+      <c r="C24">
         <v>51.47294997906266</v>
+      </c>
+      <c r="D24">
+        <v>0.0256</v>
+      </c>
+      <c r="E24">
+        <v>0.0226</v>
+      </c>
+      <c r="F24">
+        <v>0.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>46.9355790248352</v>
+        <v>51.77404113146731</v>
       </c>
       <c r="B25">
+        <v>49.791</v>
+      </c>
+      <c r="C25">
         <v>52.56054425205949</v>
+      </c>
+      <c r="D25">
+        <v>0.0132</v>
+      </c>
+      <c r="E25">
+        <v>0.0102</v>
+      </c>
+      <c r="F25">
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>47.87429060533191</v>
+        <v>51.77404113146731</v>
       </c>
       <c r="B26">
+        <v>49.791</v>
+      </c>
+      <c r="C26">
         <v>52.56054425205949</v>
+      </c>
+      <c r="D26">
+        <v>0.0132</v>
+      </c>
+      <c r="E26">
+        <v>0.0102</v>
+      </c>
+      <c r="F26">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>47.87429060533191</v>
+        <v>51.77404113146731</v>
       </c>
       <c r="B27">
+        <v>49.791</v>
+      </c>
+      <c r="C27">
         <v>52.56054425205949</v>
+      </c>
+      <c r="D27">
+        <v>0.0132</v>
+      </c>
+      <c r="E27">
+        <v>0.0102</v>
+      </c>
+      <c r="F27">
+        <v>0.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>47.87429060533191</v>
+        <v>51.77404113146731</v>
       </c>
       <c r="B28">
+        <v>49.791</v>
+      </c>
+      <c r="C28">
         <v>52.56054425205949</v>
+      </c>
+      <c r="D28">
+        <v>0.0132</v>
+      </c>
+      <c r="E28">
+        <v>0.0102</v>
+      </c>
+      <c r="F28">
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>47.87429060533191</v>
+        <v>53.4670627959121</v>
       </c>
       <c r="B29">
+        <v>51.219</v>
+      </c>
+      <c r="C29">
         <v>53.72112420587196</v>
+      </c>
+      <c r="D29">
+        <v>0.0152</v>
+      </c>
+      <c r="E29">
+        <v>0.0122</v>
+      </c>
+      <c r="F29">
+        <v>0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>48.83177641743855</v>
+        <v>53.4670627959121</v>
       </c>
       <c r="B30">
+        <v>51.219</v>
+      </c>
+      <c r="C30">
         <v>53.72112420587196</v>
+      </c>
+      <c r="D30">
+        <v>0.0152</v>
+      </c>
+      <c r="E30">
+        <v>0.0122</v>
+      </c>
+      <c r="F30">
+        <v>0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>48.83177641743855</v>
+        <v>53.4670627959121</v>
       </c>
       <c r="B31">
+        <v>51.219</v>
+      </c>
+      <c r="C31">
         <v>53.72112420587196</v>
+      </c>
+      <c r="D31">
+        <v>0.0152</v>
+      </c>
+      <c r="E31">
+        <v>0.0122</v>
+      </c>
+      <c r="F31">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>48.83177641743855</v>
+        <v>53.4670627959121</v>
       </c>
       <c r="B32">
+        <v>51.219</v>
+      </c>
+      <c r="C32">
         <v>53.72112420587196</v>
+      </c>
+      <c r="D32">
+        <v>0.0152</v>
+      </c>
+      <c r="E32">
+        <v>0.0122</v>
+      </c>
+      <c r="F32">
+        <v>0.02</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>48.83177641743855</v>
+        <v>54.52453730736497</v>
       </c>
       <c r="B33">
+        <v>52.065801</v>
+      </c>
+      <c r="C33">
         <v>54.69390090812479</v>
+      </c>
+      <c r="D33">
+        <v>0.001</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>49.80841194578732</v>
+        <v>54.52453730736497</v>
       </c>
       <c r="B34">
+        <v>52.065801</v>
+      </c>
+      <c r="C34">
         <v>54.69390090812479</v>
+      </c>
+      <c r="D34">
+        <v>0.001</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>49.80841194578732</v>
+        <v>54.52453730736497</v>
       </c>
       <c r="B35">
+        <v>52.065801</v>
+      </c>
+      <c r="C35">
         <v>54.69390090812479</v>
+      </c>
+      <c r="D35">
+        <v>0.001</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>49.80841194578732</v>
+        <v>54.52453730736497</v>
       </c>
       <c r="B36">
+        <v>52.065801</v>
+      </c>
+      <c r="C36">
         <v>54.69390090812479</v>
+      </c>
+      <c r="D36">
+        <v>0.001</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>49.80841194578732</v>
+        <v>55.51569814060684</v>
       </c>
       <c r="B37">
+        <v>52.975815</v>
+      </c>
+      <c r="C37">
         <v>56.93826309219777</v>
+      </c>
+      <c r="D37">
+        <v>-0.0022</v>
+      </c>
+      <c r="E37">
+        <v>-0.0022</v>
+      </c>
+      <c r="F37">
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>50.80458018470307</v>
+        <v>55.51569814060684</v>
       </c>
       <c r="B38">
+        <v>52.975815</v>
+      </c>
+      <c r="C38">
         <v>56.93826309219777</v>
+      </c>
+      <c r="D38">
+        <v>-0.0022</v>
+      </c>
+      <c r="E38">
+        <v>-0.0022</v>
+      </c>
+      <c r="F38">
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>50.80458018470307</v>
+        <v>55.51569814060684</v>
       </c>
       <c r="B39">
+        <v>52.975815</v>
+      </c>
+      <c r="C39">
         <v>56.93826309219777</v>
+      </c>
+      <c r="D39">
+        <v>-0.0022</v>
+      </c>
+      <c r="E39">
+        <v>-0.0022</v>
+      </c>
+      <c r="F39">
+        <v>0.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>50.80458018470307</v>
+        <v>55.51569814060684</v>
       </c>
       <c r="B40">
+        <v>52.975815</v>
+      </c>
+      <c r="C40">
         <v>56.93826309219777</v>
+      </c>
+      <c r="D40">
+        <v>-0.0022</v>
+      </c>
+      <c r="E40">
+        <v>-0.0022</v>
+      </c>
+      <c r="F40">
+        <v>0.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>50.80458018470307</v>
+        <v>56.57897413561923</v>
       </c>
       <c r="B41">
+        <v>53.755827</v>
+      </c>
+      <c r="C41">
         <v>56.57897413561923</v>
+      </c>
+      <c r="D41">
+        <v>-0.0002</v>
+      </c>
+      <c r="E41">
+        <v>-0.0002</v>
+      </c>
+      <c r="F41">
+        <v>0.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>51.82067178839713</v>
+        <v>56.57897413561923</v>
       </c>
       <c r="B42">
+        <v>53.755827</v>
+      </c>
+      <c r="C42">
         <v>56.57897413561923</v>
+      </c>
+      <c r="D42">
+        <v>-0.0002</v>
+      </c>
+      <c r="E42">
+        <v>-0.0002</v>
+      </c>
+      <c r="F42">
+        <v>0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>51.82067178839713</v>
+        <v>56.57897413561923</v>
       </c>
       <c r="B43">
+        <v>53.755827</v>
+      </c>
+      <c r="C43">
         <v>56.57897413561923</v>
+      </c>
+      <c r="D43">
+        <v>-0.0002</v>
+      </c>
+      <c r="E43">
+        <v>-0.0002</v>
+      </c>
+      <c r="F43">
+        <v>0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>51.82067178839713</v>
+        <v>56.57897413561923</v>
       </c>
       <c r="B44">
+        <v>53.755827</v>
+      </c>
+      <c r="C44">
         <v>56.57897413561923</v>
+      </c>
+      <c r="D44">
+        <v>-0.0002</v>
+      </c>
+      <c r="E44">
+        <v>-0.0002</v>
+      </c>
+      <c r="F44">
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>51.82067178839713</v>
+        <v>58.28203150735401</v>
       </c>
       <c r="B45">
+        <v>54.339</v>
+      </c>
+      <c r="C45">
         <v>56.98705326772444</v>
+      </c>
+      <c r="D45">
+        <v>0.0181</v>
+      </c>
+      <c r="E45">
+        <v>0.0151</v>
+      </c>
+      <c r="F45">
+        <v>0.014</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>52.3906991780695</v>
+        <v>58.28203150735401</v>
       </c>
       <c r="B46">
+        <v>54.339</v>
+      </c>
+      <c r="C46">
         <v>56.98705326772444</v>
+      </c>
+      <c r="D46">
+        <v>0.0181</v>
+      </c>
+      <c r="E46">
+        <v>0.0151</v>
+      </c>
+      <c r="F46">
+        <v>0.014</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>52.3906991780695</v>
+        <v>58.28203150735401</v>
       </c>
       <c r="B47">
+        <v>54.339</v>
+      </c>
+      <c r="C47">
         <v>56.98705326772444</v>
+      </c>
+      <c r="D47">
+        <v>0.0181</v>
+      </c>
+      <c r="E47">
+        <v>0.0151</v>
+      </c>
+      <c r="F47">
+        <v>0.014</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>52.3906991780695</v>
+        <v>58.28203150735401</v>
       </c>
       <c r="B48">
+        <v>54.339</v>
+      </c>
+      <c r="C48">
         <v>56.98705326772444</v>
+      </c>
+      <c r="D48">
+        <v>0.0181</v>
+      </c>
+      <c r="E48">
+        <v>0.0151</v>
+      </c>
+      <c r="F48">
+        <v>0.014</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>52.3906991780695</v>
+        <v>57.91320131653115</v>
       </c>
       <c r="B49">
+        <v>55.209</v>
+      </c>
+      <c r="C49">
         <v>59.21322252223507</v>
+      </c>
+      <c r="D49">
+        <v>-0.0223</v>
+      </c>
+      <c r="E49">
+        <v>-0.0223</v>
+      </c>
+      <c r="F49">
+        <v>0.016</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>53.22895036491861</v>
+        <v>57.91320131653115</v>
       </c>
       <c r="B50">
+        <v>55.209</v>
+      </c>
+      <c r="C50">
         <v>59.21322252223507</v>
+      </c>
+      <c r="D50">
+        <v>-0.0223</v>
+      </c>
+      <c r="E50">
+        <v>-0.0223</v>
+      </c>
+      <c r="F50">
+        <v>0.016</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>53.22895036491861</v>
+        <v>57.91320131653115</v>
       </c>
       <c r="B51">
+        <v>55.209</v>
+      </c>
+      <c r="C51">
         <v>59.21322252223507</v>
+      </c>
+      <c r="D51">
+        <v>-0.0223</v>
+      </c>
+      <c r="E51">
+        <v>-0.0223</v>
+      </c>
+      <c r="F51">
+        <v>0.016</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>53.22895036491861</v>
+        <v>57.91320131653115</v>
       </c>
       <c r="B52">
+        <v>55.209</v>
+      </c>
+      <c r="C52">
         <v>59.21322252223507</v>
+      </c>
+      <c r="D52">
+        <v>-0.0223</v>
+      </c>
+      <c r="E52">
+        <v>-0.0223</v>
+      </c>
+      <c r="F52">
+        <v>0.016</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>53.22895036491861</v>
+        <v>57.71622913720188</v>
       </c>
       <c r="B53">
+        <v>55.899</v>
+      </c>
+      <c r="C53">
         <v>60.10589770601372</v>
+      </c>
+      <c r="D53">
+        <v>-0.0162</v>
+      </c>
+      <c r="E53">
+        <v>-0.0162</v>
+      </c>
+      <c r="F53">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53.89431224448009</v>
+        <v>57.71622913720188</v>
       </c>
       <c r="B54">
+        <v>55.899</v>
+      </c>
+      <c r="C54">
         <v>60.10589770601372</v>
+      </c>
+      <c r="D54">
+        <v>-0.0162</v>
+      </c>
+      <c r="E54">
+        <v>-0.0162</v>
+      </c>
+      <c r="F54">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>53.89431224448009</v>
+        <v>57.71622913720188</v>
       </c>
       <c r="B55">
+        <v>55.899</v>
+      </c>
+      <c r="C55">
         <v>60.10589770601372</v>
+      </c>
+      <c r="D55">
+        <v>-0.0162</v>
+      </c>
+      <c r="E55">
+        <v>-0.0162</v>
+      </c>
+      <c r="F55">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>53.89431224448009</v>
+        <v>57.71622913720188</v>
       </c>
       <c r="B56">
+        <v>55.899</v>
+      </c>
+      <c r="C56">
         <v>60.10589770601372</v>
+      </c>
+      <c r="D56">
+        <v>-0.0162</v>
+      </c>
+      <c r="E56">
+        <v>-0.0162</v>
+      </c>
+      <c r="F56">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>53.89431224448009</v>
+        <v>59.73959069304879</v>
       </c>
       <c r="B57">
-        <v>61.72875694407608</v>
+        <v>56.598</v>
+      </c>
+      <c r="C57">
+        <v>61.72875694407607</v>
+      </c>
+      <c r="D57">
+        <v>0.0254</v>
+      </c>
+      <c r="E57">
+        <v>0.0224</v>
+      </c>
+      <c r="F57">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>54.56799114753609</v>
+        <v>59.73959069304879</v>
       </c>
       <c r="B58">
-        <v>61.72875694407608</v>
+        <v>56.598</v>
+      </c>
+      <c r="C58">
+        <v>61.72875694407607</v>
+      </c>
+      <c r="D58">
+        <v>0.0254</v>
+      </c>
+      <c r="E58">
+        <v>0.0224</v>
+      </c>
+      <c r="F58">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>54.56799114753609</v>
+        <v>59.73959069304879</v>
       </c>
       <c r="B59">
-        <v>61.72875694407608</v>
+        <v>56.598</v>
+      </c>
+      <c r="C59">
+        <v>61.72875694407607</v>
+      </c>
+      <c r="D59">
+        <v>0.0254</v>
+      </c>
+      <c r="E59">
+        <v>0.0224</v>
+      </c>
+      <c r="F59">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>54.56799114753609</v>
+        <v>59.73959069304879</v>
       </c>
       <c r="B60">
-        <v>61.72875694407608</v>
+        <v>56.598</v>
+      </c>
+      <c r="C60">
+        <v>61.72875694407607</v>
+      </c>
+      <c r="D60">
+        <v>0.0254</v>
+      </c>
+      <c r="E60">
+        <v>0.0224</v>
+      </c>
+      <c r="F60">
+        <v>0.0125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>54.56799114753609</v>
+        <v>59.96658168915171</v>
       </c>
       <c r="B61">
+        <v>57.249</v>
+      </c>
+      <c r="C61">
         <v>64.32770256213593</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>55.19552304573276</v>
+      <c r="D61">
+        <v>-0.0053</v>
+      </c>
+      <c r="E61">
+        <v>-0.0053</v>
+      </c>
+      <c r="F61">
+        <v>0.0095</v>
       </c>
     </row>
   </sheetData>

--- a/udregnet dagpenge.xlsx
+++ b/udregnet dagpenge.xlsx
@@ -424,19 +424,19 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>43.6758014</v>
+        <v>44.07540479999999</v>
       </c>
       <c r="B5">
         <v>43.355667</v>
       </c>
       <c r="C5">
-        <v>44.168929</v>
+        <v>44.466506</v>
       </c>
       <c r="D5">
-        <v>0.0104</v>
+        <v>0.0198</v>
       </c>
       <c r="E5">
-        <v>0.0074</v>
+        <v>0.0168</v>
       </c>
       <c r="F5">
         <v>0.02</v>
@@ -444,19 +444,19 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>43.6758014</v>
+        <v>44.07540479999999</v>
       </c>
       <c r="B6">
         <v>43.355667</v>
       </c>
       <c r="C6">
-        <v>44.168929</v>
+        <v>44.466506</v>
       </c>
       <c r="D6">
-        <v>0.0104</v>
+        <v>0.0198</v>
       </c>
       <c r="E6">
-        <v>0.0074</v>
+        <v>0.0168</v>
       </c>
       <c r="F6">
         <v>0.02</v>
@@ -464,19 +464,19 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>43.6758014</v>
+        <v>44.07540479999999</v>
       </c>
       <c r="B7">
         <v>43.355667</v>
       </c>
       <c r="C7">
-        <v>44.168929</v>
+        <v>44.466506</v>
       </c>
       <c r="D7">
-        <v>0.0104</v>
+        <v>0.0198</v>
       </c>
       <c r="E7">
-        <v>0.0074</v>
+        <v>0.0168</v>
       </c>
       <c r="F7">
         <v>0.02</v>
@@ -484,19 +484,19 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>43.6758014</v>
+        <v>44.07540479999999</v>
       </c>
       <c r="B8">
         <v>43.355667</v>
       </c>
       <c r="C8">
-        <v>44.168929</v>
+        <v>44.466506</v>
       </c>
       <c r="D8">
-        <v>0.0104</v>
+        <v>0.0198</v>
       </c>
       <c r="E8">
-        <v>0.0074</v>
+        <v>0.0168</v>
       </c>
       <c r="F8">
         <v>0.02</v>
@@ -504,19 +504,19 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>44.77648303359</v>
+        <v>45.50365366875999</v>
       </c>
       <c r="B9">
         <v>44.39568300000001</v>
       </c>
       <c r="C9">
-        <v>46.06836299099999</v>
+        <v>46.70782365564</v>
       </c>
       <c r="D9">
-        <v>0.008200000000000001</v>
+        <v>0.0155</v>
       </c>
       <c r="E9">
-        <v>0.0052</v>
+        <v>0.0125</v>
       </c>
       <c r="F9">
         <v>0.02</v>
@@ -524,19 +524,19 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>44.77648303359</v>
+        <v>45.50365366875999</v>
       </c>
       <c r="B10">
         <v>44.39568300000001</v>
       </c>
       <c r="C10">
-        <v>46.06836299099999</v>
+        <v>46.70782365564</v>
       </c>
       <c r="D10">
-        <v>0.008200000000000001</v>
+        <v>0.0155</v>
       </c>
       <c r="E10">
-        <v>0.0052</v>
+        <v>0.0125</v>
       </c>
       <c r="F10">
         <v>0.02</v>
@@ -544,19 +544,19 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>44.77648303359</v>
+        <v>45.50365366875999</v>
       </c>
       <c r="B11">
         <v>44.39568300000001</v>
       </c>
       <c r="C11">
-        <v>46.06836299099999</v>
+        <v>46.70782365564</v>
       </c>
       <c r="D11">
-        <v>0.008200000000000001</v>
+        <v>0.0155</v>
       </c>
       <c r="E11">
-        <v>0.0052</v>
+        <v>0.0125</v>
       </c>
       <c r="F11">
         <v>0.02</v>
@@ -564,19 +564,19 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>44.77648303359</v>
+        <v>45.50365366875999</v>
       </c>
       <c r="B12">
         <v>44.39568300000001</v>
       </c>
       <c r="C12">
-        <v>46.06836299099999</v>
+        <v>46.70782365564</v>
       </c>
       <c r="D12">
-        <v>0.008200000000000001</v>
+        <v>0.0155</v>
       </c>
       <c r="E12">
-        <v>0.0052</v>
+        <v>0.0125</v>
       </c>
       <c r="F12">
         <v>0.02</v>
@@ -584,19 +584,19 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>46.34476173722796</v>
+        <v>47.46134616354988</v>
       </c>
       <c r="B13">
         <v>45.69570300000001</v>
       </c>
       <c r="C13">
-        <v>48.23410743907699</v>
+        <v>49.05729270334436</v>
       </c>
       <c r="D13">
-        <v>0.0179</v>
+        <v>0.026</v>
       </c>
       <c r="E13">
-        <v>0.0149</v>
+        <v>0.023</v>
       </c>
       <c r="F13">
         <v>0.02</v>
@@ -604,19 +604,19 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>46.34476173722796</v>
+        <v>47.46134616354988</v>
       </c>
       <c r="B14">
         <v>45.69570300000001</v>
       </c>
       <c r="C14">
-        <v>48.23410743907699</v>
+        <v>49.05729270334436</v>
       </c>
       <c r="D14">
-        <v>0.0179</v>
+        <v>0.026</v>
       </c>
       <c r="E14">
-        <v>0.0149</v>
+        <v>0.023</v>
       </c>
       <c r="F14">
         <v>0.02</v>
@@ -624,19 +624,19 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>46.34476173722796</v>
+        <v>47.46134616354988</v>
       </c>
       <c r="B15">
         <v>45.69570300000001</v>
       </c>
       <c r="C15">
-        <v>48.23410743907699</v>
+        <v>49.05729270334436</v>
       </c>
       <c r="D15">
-        <v>0.0179</v>
+        <v>0.026</v>
       </c>
       <c r="E15">
-        <v>0.0149</v>
+        <v>0.023</v>
       </c>
       <c r="F15">
         <v>0.02</v>
@@ -644,19 +644,19 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>46.34476173722796</v>
+        <v>47.46134616354988</v>
       </c>
       <c r="B16">
         <v>45.69570300000001</v>
       </c>
       <c r="C16">
-        <v>48.23410743907699</v>
+        <v>49.05729270334436</v>
       </c>
       <c r="D16">
-        <v>0.0179</v>
+        <v>0.026</v>
       </c>
       <c r="E16">
-        <v>0.0149</v>
+        <v>0.023</v>
       </c>
       <c r="F16">
         <v>0.02</v>
@@ -664,19 +664,19 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>48.21921216180634</v>
+        <v>49.71273236537542</v>
       </c>
       <c r="B17">
         <v>47.124</v>
       </c>
       <c r="C17">
-        <v>49.73185724416001</v>
+        <v>50.79225211427597</v>
       </c>
       <c r="D17">
-        <v>0.0234</v>
+        <v>0.0304</v>
       </c>
       <c r="E17">
-        <v>0.0204</v>
+        <v>0.0274</v>
       </c>
       <c r="F17">
         <v>0.02</v>
@@ -684,19 +684,19 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>48.21921216180634</v>
+        <v>49.71273236537542</v>
       </c>
       <c r="B18">
         <v>47.124</v>
       </c>
       <c r="C18">
-        <v>49.73185724416001</v>
+        <v>50.79225211427597</v>
       </c>
       <c r="D18">
-        <v>0.0234</v>
+        <v>0.0304</v>
       </c>
       <c r="E18">
-        <v>0.0204</v>
+        <v>0.0274</v>
       </c>
       <c r="F18">
         <v>0.02</v>
@@ -704,19 +704,19 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>48.21921216180634</v>
+        <v>49.71273236537542</v>
       </c>
       <c r="B19">
         <v>47.124</v>
       </c>
       <c r="C19">
-        <v>49.73185724416001</v>
+        <v>50.79225211427597</v>
       </c>
       <c r="D19">
-        <v>0.0234</v>
+        <v>0.0304</v>
       </c>
       <c r="E19">
-        <v>0.0204</v>
+        <v>0.0274</v>
       </c>
       <c r="F19">
         <v>0.02</v>
@@ -724,19 +724,19 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>48.21921216180634</v>
+        <v>49.71273236537542</v>
       </c>
       <c r="B20">
         <v>47.124</v>
       </c>
       <c r="C20">
-        <v>49.73185724416001</v>
+        <v>50.79225211427597</v>
       </c>
       <c r="D20">
-        <v>0.0234</v>
+        <v>0.0304</v>
       </c>
       <c r="E20">
-        <v>0.0204</v>
+        <v>0.0274</v>
       </c>
       <c r="F20">
         <v>0.02</v>
@@ -744,19 +744,19 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>50.2705934061776</v>
+        <v>52.07019305140606</v>
       </c>
       <c r="B21">
         <v>48.879</v>
       </c>
       <c r="C21">
-        <v>51.47294997906266</v>
+        <v>52.59731662172928</v>
       </c>
       <c r="D21">
-        <v>0.0256</v>
+        <v>0.0304</v>
       </c>
       <c r="E21">
-        <v>0.0226</v>
+        <v>0.0274</v>
       </c>
       <c r="F21">
         <v>0.02</v>
@@ -764,19 +764,19 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>50.2705934061776</v>
+        <v>52.07019305140606</v>
       </c>
       <c r="B22">
         <v>48.879</v>
       </c>
       <c r="C22">
-        <v>51.47294997906266</v>
+        <v>52.59731662172928</v>
       </c>
       <c r="D22">
-        <v>0.0256</v>
+        <v>0.0304</v>
       </c>
       <c r="E22">
-        <v>0.0226</v>
+        <v>0.0274</v>
       </c>
       <c r="F22">
         <v>0.02</v>
@@ -784,19 +784,19 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>50.2705934061776</v>
+        <v>52.07019305140606</v>
       </c>
       <c r="B23">
         <v>48.879</v>
       </c>
       <c r="C23">
-        <v>51.47294997906266</v>
+        <v>52.59731662172928</v>
       </c>
       <c r="D23">
-        <v>0.0256</v>
+        <v>0.0304</v>
       </c>
       <c r="E23">
-        <v>0.0226</v>
+        <v>0.0274</v>
       </c>
       <c r="F23">
         <v>0.02</v>
@@ -804,19 +804,19 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>50.2705934061776</v>
+        <v>52.07019305140606</v>
       </c>
       <c r="B24">
         <v>48.879</v>
       </c>
       <c r="C24">
-        <v>51.47294997906266</v>
+        <v>52.59731662172928</v>
       </c>
       <c r="D24">
-        <v>0.0256</v>
+        <v>0.0304</v>
       </c>
       <c r="E24">
-        <v>0.0226</v>
+        <v>0.0274</v>
       </c>
       <c r="F24">
         <v>0.02</v>
@@ -824,19 +824,19 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>51.77404113146731</v>
+        <v>53.72794126890716</v>
       </c>
       <c r="B25">
         <v>49.791</v>
       </c>
       <c r="C25">
-        <v>52.56054425205949</v>
+        <v>53.69694587071296</v>
       </c>
       <c r="D25">
-        <v>0.0132</v>
+        <v>0.015</v>
       </c>
       <c r="E25">
-        <v>0.0102</v>
+        <v>0.012</v>
       </c>
       <c r="F25">
         <v>0.02</v>
@@ -844,19 +844,19 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>51.77404113146731</v>
+        <v>53.72794126890716</v>
       </c>
       <c r="B26">
         <v>49.791</v>
       </c>
       <c r="C26">
-        <v>52.56054425205949</v>
+        <v>53.69694587071296</v>
       </c>
       <c r="D26">
-        <v>0.0132</v>
+        <v>0.015</v>
       </c>
       <c r="E26">
-        <v>0.0102</v>
+        <v>0.012</v>
       </c>
       <c r="F26">
         <v>0.02</v>
@@ -864,19 +864,19 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>51.77404113146731</v>
+        <v>53.72794126890716</v>
       </c>
       <c r="B27">
         <v>49.791</v>
       </c>
       <c r="C27">
-        <v>52.56054425205949</v>
+        <v>53.69694587071296</v>
       </c>
       <c r="D27">
-        <v>0.0132</v>
+        <v>0.015</v>
       </c>
       <c r="E27">
-        <v>0.0102</v>
+        <v>0.012</v>
       </c>
       <c r="F27">
         <v>0.02</v>
@@ -884,19 +884,19 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>51.77404113146731</v>
+        <v>53.72794126890716</v>
       </c>
       <c r="B28">
         <v>49.791</v>
       </c>
       <c r="C28">
-        <v>52.56054425205949</v>
+        <v>53.69694587071296</v>
       </c>
       <c r="D28">
-        <v>0.0132</v>
+        <v>0.015</v>
       </c>
       <c r="E28">
-        <v>0.0102</v>
+        <v>0.012</v>
       </c>
       <c r="F28">
         <v>0.02</v>
@@ -904,19 +904,19 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>53.4670627959121</v>
+        <v>55.49130110471737</v>
       </c>
       <c r="B29">
         <v>51.219</v>
       </c>
       <c r="C29">
-        <v>53.72112420587196</v>
+        <v>54.63695231847744</v>
       </c>
       <c r="D29">
-        <v>0.0152</v>
+        <v>0.0158</v>
       </c>
       <c r="E29">
-        <v>0.0122</v>
+        <v>0.0128</v>
       </c>
       <c r="F29">
         <v>0.02</v>
@@ -924,19 +924,19 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>53.4670627959121</v>
+        <v>55.49130110471737</v>
       </c>
       <c r="B30">
         <v>51.219</v>
       </c>
       <c r="C30">
-        <v>53.72112420587196</v>
+        <v>54.63695231847744</v>
       </c>
       <c r="D30">
-        <v>0.0152</v>
+        <v>0.0158</v>
       </c>
       <c r="E30">
-        <v>0.0122</v>
+        <v>0.0128</v>
       </c>
       <c r="F30">
         <v>0.02</v>
@@ -944,19 +944,19 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>53.4670627959121</v>
+        <v>55.49130110471737</v>
       </c>
       <c r="B31">
         <v>51.219</v>
       </c>
       <c r="C31">
-        <v>53.72112420587196</v>
+        <v>54.63695231847744</v>
       </c>
       <c r="D31">
-        <v>0.0152</v>
+        <v>0.0158</v>
       </c>
       <c r="E31">
-        <v>0.0122</v>
+        <v>0.0128</v>
       </c>
       <c r="F31">
         <v>0.02</v>
@@ -964,19 +964,19 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>53.4670627959121</v>
+        <v>55.49130110471737</v>
       </c>
       <c r="B32">
         <v>51.219</v>
       </c>
       <c r="C32">
-        <v>53.72112420587196</v>
+        <v>54.63695231847744</v>
       </c>
       <c r="D32">
-        <v>0.0152</v>
+        <v>0.0158</v>
       </c>
       <c r="E32">
-        <v>0.0122</v>
+        <v>0.0128</v>
       </c>
       <c r="F32">
         <v>0.02</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>54.52453730736497</v>
+        <v>56.63120107810186</v>
       </c>
       <c r="B33">
         <v>52.065801</v>
       </c>
       <c r="C33">
-        <v>54.69390090812479</v>
+        <v>55.67670412872289</v>
       </c>
       <c r="D33">
-        <v>0.001</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>54.52453730736497</v>
+        <v>56.63120107810186</v>
       </c>
       <c r="B34">
         <v>52.065801</v>
       </c>
       <c r="C34">
-        <v>54.69390090812479</v>
+        <v>55.67670412872289</v>
       </c>
       <c r="D34">
-        <v>0.001</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1024,16 +1024,16 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>54.52453730736497</v>
+        <v>56.63120107810186</v>
       </c>
       <c r="B35">
         <v>52.065801</v>
       </c>
       <c r="C35">
-        <v>54.69390090812479</v>
+        <v>55.67670412872289</v>
       </c>
       <c r="D35">
-        <v>0.001</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1044,16 +1044,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>54.52453730736497</v>
+        <v>56.63120107810186</v>
       </c>
       <c r="B36">
         <v>52.065801</v>
       </c>
       <c r="C36">
-        <v>54.69390090812479</v>
+        <v>55.67670412872289</v>
       </c>
       <c r="D36">
-        <v>0.001</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1064,19 +1064,19 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>55.51569814060684</v>
+        <v>57.58641508033809</v>
       </c>
       <c r="B37">
         <v>52.975815</v>
       </c>
       <c r="C37">
-        <v>56.93826309219777</v>
+        <v>57.636543497343</v>
       </c>
       <c r="D37">
-        <v>-0.0022</v>
+        <v>-0.0029</v>
       </c>
       <c r="E37">
-        <v>-0.0022</v>
+        <v>-0.0029</v>
       </c>
       <c r="F37">
         <v>0.02</v>
@@ -1084,19 +1084,19 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>55.51569814060684</v>
+        <v>57.58641508033809</v>
       </c>
       <c r="B38">
         <v>52.975815</v>
       </c>
       <c r="C38">
-        <v>56.93826309219777</v>
+        <v>57.636543497343</v>
       </c>
       <c r="D38">
-        <v>-0.0022</v>
+        <v>-0.0029</v>
       </c>
       <c r="E38">
-        <v>-0.0022</v>
+        <v>-0.0029</v>
       </c>
       <c r="F38">
         <v>0.02</v>
@@ -1104,19 +1104,19 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>55.51569814060684</v>
+        <v>57.58641508033809</v>
       </c>
       <c r="B39">
         <v>52.975815</v>
       </c>
       <c r="C39">
-        <v>56.93826309219777</v>
+        <v>57.636543497343</v>
       </c>
       <c r="D39">
-        <v>-0.0022</v>
+        <v>-0.0029</v>
       </c>
       <c r="E39">
-        <v>-0.0022</v>
+        <v>-0.0029</v>
       </c>
       <c r="F39">
         <v>0.02</v>
@@ -1124,19 +1124,19 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>55.51569814060684</v>
+        <v>57.58641508033809</v>
       </c>
       <c r="B40">
         <v>52.975815</v>
       </c>
       <c r="C40">
-        <v>56.93826309219777</v>
+        <v>57.636543497343</v>
       </c>
       <c r="D40">
-        <v>-0.0022</v>
+        <v>-0.0029</v>
       </c>
       <c r="E40">
-        <v>-0.0022</v>
+        <v>-0.0029</v>
       </c>
       <c r="F40">
         <v>0.02</v>
@@ -1144,19 +1144,19 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>56.57897413561923</v>
+        <v>58.70344841163474</v>
       </c>
       <c r="B41">
         <v>53.755827</v>
       </c>
       <c r="C41">
-        <v>56.57897413561923</v>
+        <v>57.52068927572657</v>
       </c>
       <c r="D41">
-        <v>-0.0002</v>
+        <v>-0.0012</v>
       </c>
       <c r="E41">
-        <v>-0.0002</v>
+        <v>-0.0012</v>
       </c>
       <c r="F41">
         <v>0.02</v>
@@ -1164,19 +1164,19 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>56.57897413561923</v>
+        <v>58.70344841163474</v>
       </c>
       <c r="B42">
         <v>53.755827</v>
       </c>
       <c r="C42">
-        <v>56.57897413561923</v>
+        <v>57.52068927572657</v>
       </c>
       <c r="D42">
-        <v>-0.0002</v>
+        <v>-0.0012</v>
       </c>
       <c r="E42">
-        <v>-0.0002</v>
+        <v>-0.0012</v>
       </c>
       <c r="F42">
         <v>0.02</v>
@@ -1184,19 +1184,19 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>56.57897413561923</v>
+        <v>58.70344841163474</v>
       </c>
       <c r="B43">
         <v>53.755827</v>
       </c>
       <c r="C43">
-        <v>56.57897413561923</v>
+        <v>57.52068927572657</v>
       </c>
       <c r="D43">
-        <v>-0.0002</v>
+        <v>-0.0012</v>
       </c>
       <c r="E43">
-        <v>-0.0002</v>
+        <v>-0.0012</v>
       </c>
       <c r="F43">
         <v>0.02</v>
@@ -1204,19 +1204,19 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>56.57897413561923</v>
+        <v>58.70344841163474</v>
       </c>
       <c r="B44">
         <v>53.755827</v>
       </c>
       <c r="C44">
-        <v>56.57897413561923</v>
+        <v>57.52068927572657</v>
       </c>
       <c r="D44">
-        <v>-0.0002</v>
+        <v>-0.0012</v>
       </c>
       <c r="E44">
-        <v>-0.0002</v>
+        <v>-0.0012</v>
       </c>
       <c r="F44">
         <v>0.02</v>
@@ -1224,19 +1224,19 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>58.28203150735401</v>
+        <v>60.24260221556173</v>
       </c>
       <c r="B45">
         <v>54.339</v>
       </c>
       <c r="C45">
-        <v>56.98705326772444</v>
+        <v>57.78558509495009</v>
       </c>
       <c r="D45">
-        <v>0.0181</v>
+        <v>0.0154</v>
       </c>
       <c r="E45">
-        <v>0.0151</v>
+        <v>0.0124</v>
       </c>
       <c r="F45">
         <v>0.014</v>
@@ -1244,19 +1244,19 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>58.28203150735401</v>
+        <v>60.24260221556173</v>
       </c>
       <c r="B46">
         <v>54.339</v>
       </c>
       <c r="C46">
-        <v>56.98705326772444</v>
+        <v>57.78558509495009</v>
       </c>
       <c r="D46">
-        <v>0.0181</v>
+        <v>0.0154</v>
       </c>
       <c r="E46">
-        <v>0.0151</v>
+        <v>0.0124</v>
       </c>
       <c r="F46">
         <v>0.014</v>
@@ -1264,19 +1264,19 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>58.28203150735401</v>
+        <v>60.24260221556173</v>
       </c>
       <c r="B47">
         <v>54.339</v>
       </c>
       <c r="C47">
-        <v>56.98705326772444</v>
+        <v>57.78558509495009</v>
       </c>
       <c r="D47">
-        <v>0.0181</v>
+        <v>0.0154</v>
       </c>
       <c r="E47">
-        <v>0.0151</v>
+        <v>0.0124</v>
       </c>
       <c r="F47">
         <v>0.014</v>
@@ -1284,19 +1284,19 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>58.28203150735401</v>
+        <v>60.24260221556173</v>
       </c>
       <c r="B48">
         <v>54.339</v>
       </c>
       <c r="C48">
-        <v>56.98705326772444</v>
+        <v>57.78558509495009</v>
       </c>
       <c r="D48">
-        <v>0.0181</v>
+        <v>0.0154</v>
       </c>
       <c r="E48">
-        <v>0.0151</v>
+        <v>0.0124</v>
       </c>
       <c r="F48">
         <v>0.014</v>
@@ -1304,19 +1304,19 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>57.91320131653115</v>
+        <v>59.9081375527332</v>
       </c>
       <c r="B49">
         <v>55.209</v>
       </c>
       <c r="C49">
-        <v>59.21322252223507</v>
+        <v>60.11806511044952</v>
       </c>
       <c r="D49">
-        <v>-0.0223</v>
+        <v>-0.0221</v>
       </c>
       <c r="E49">
-        <v>-0.0223</v>
+        <v>-0.0221</v>
       </c>
       <c r="F49">
         <v>0.016</v>
@@ -1324,19 +1324,19 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>57.91320131653115</v>
+        <v>59.9081375527332</v>
       </c>
       <c r="B50">
         <v>55.209</v>
       </c>
       <c r="C50">
-        <v>59.21322252223507</v>
+        <v>60.11806511044952</v>
       </c>
       <c r="D50">
-        <v>-0.0223</v>
+        <v>-0.0221</v>
       </c>
       <c r="E50">
-        <v>-0.0223</v>
+        <v>-0.0221</v>
       </c>
       <c r="F50">
         <v>0.016</v>
@@ -1344,19 +1344,19 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>57.91320131653115</v>
+        <v>59.9081375527332</v>
       </c>
       <c r="B51">
         <v>55.209</v>
       </c>
       <c r="C51">
-        <v>59.21322252223507</v>
+        <v>60.11806511044952</v>
       </c>
       <c r="D51">
-        <v>-0.0223</v>
+        <v>-0.0221</v>
       </c>
       <c r="E51">
-        <v>-0.0223</v>
+        <v>-0.0221</v>
       </c>
       <c r="F51">
         <v>0.016</v>
@@ -1364,19 +1364,19 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>57.91320131653115</v>
+        <v>59.9081375527332</v>
       </c>
       <c r="B52">
         <v>55.209</v>
       </c>
       <c r="C52">
-        <v>59.21322252223507</v>
+        <v>60.11806511044952</v>
       </c>
       <c r="D52">
-        <v>-0.0223</v>
+        <v>-0.0221</v>
       </c>
       <c r="E52">
-        <v>-0.0223</v>
+        <v>-0.0221</v>
       </c>
       <c r="F52">
         <v>0.016</v>
@@ -1384,19 +1384,19 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>57.71622913720188</v>
+        <v>59.72658989814961</v>
       </c>
       <c r="B53">
         <v>55.899</v>
       </c>
       <c r="C53">
-        <v>60.10589770601372</v>
+        <v>60.87119275285767</v>
       </c>
       <c r="D53">
-        <v>-0.0162</v>
+        <v>-0.0166</v>
       </c>
       <c r="E53">
-        <v>-0.0162</v>
+        <v>-0.0166</v>
       </c>
       <c r="F53">
         <v>0.0125</v>
@@ -1404,19 +1404,19 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>57.71622913720188</v>
+        <v>59.72658989814961</v>
       </c>
       <c r="B54">
         <v>55.899</v>
       </c>
       <c r="C54">
-        <v>60.10589770601372</v>
+        <v>60.87119275285767</v>
       </c>
       <c r="D54">
-        <v>-0.0162</v>
+        <v>-0.0166</v>
       </c>
       <c r="E54">
-        <v>-0.0162</v>
+        <v>-0.0166</v>
       </c>
       <c r="F54">
         <v>0.0125</v>
@@ -1424,19 +1424,19 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>57.71622913720188</v>
+        <v>59.72658989814961</v>
       </c>
       <c r="B55">
         <v>55.899</v>
       </c>
       <c r="C55">
-        <v>60.10589770601372</v>
+        <v>60.87119275285767</v>
       </c>
       <c r="D55">
-        <v>-0.0162</v>
+        <v>-0.0166</v>
       </c>
       <c r="E55">
-        <v>-0.0162</v>
+        <v>-0.0166</v>
       </c>
       <c r="F55">
         <v>0.0125</v>
@@ -1444,19 +1444,19 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>57.71622913720188</v>
+        <v>59.72658989814961</v>
       </c>
       <c r="B56">
         <v>55.899</v>
       </c>
       <c r="C56">
-        <v>60.10589770601372</v>
+        <v>60.87119275285767</v>
       </c>
       <c r="D56">
-        <v>-0.0162</v>
+        <v>-0.0166</v>
       </c>
       <c r="E56">
-        <v>-0.0162</v>
+        <v>-0.0166</v>
       </c>
       <c r="F56">
         <v>0.0125</v>
@@ -1464,19 +1464,19 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>59.73959069304879</v>
+        <v>61.4767909396051</v>
       </c>
       <c r="B57">
         <v>56.598</v>
       </c>
       <c r="C57">
-        <v>61.72875694407607</v>
+        <v>62.23556827461719</v>
       </c>
       <c r="D57">
-        <v>0.0254</v>
+        <v>0.0207</v>
       </c>
       <c r="E57">
-        <v>0.0224</v>
+        <v>0.0177</v>
       </c>
       <c r="F57">
         <v>0.0125</v>
@@ -1484,19 +1484,19 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>59.73959069304879</v>
+        <v>61.4767909396051</v>
       </c>
       <c r="B58">
         <v>56.598</v>
       </c>
       <c r="C58">
-        <v>61.72875694407607</v>
+        <v>62.23556827461719</v>
       </c>
       <c r="D58">
-        <v>0.0254</v>
+        <v>0.0207</v>
       </c>
       <c r="E58">
-        <v>0.0224</v>
+        <v>0.0177</v>
       </c>
       <c r="F58">
         <v>0.0125</v>
@@ -1504,19 +1504,19 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>59.73959069304879</v>
+        <v>61.4767909396051</v>
       </c>
       <c r="B59">
         <v>56.598</v>
       </c>
       <c r="C59">
-        <v>61.72875694407607</v>
+        <v>62.23556827461719</v>
       </c>
       <c r="D59">
-        <v>0.0254</v>
+        <v>0.0207</v>
       </c>
       <c r="E59">
-        <v>0.0224</v>
+        <v>0.0177</v>
       </c>
       <c r="F59">
         <v>0.0125</v>
@@ -1524,19 +1524,19 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>59.73959069304879</v>
+        <v>61.4767909396051</v>
       </c>
       <c r="B60">
         <v>56.598</v>
       </c>
       <c r="C60">
-        <v>61.72875694407607</v>
+        <v>62.23556827461719</v>
       </c>
       <c r="D60">
-        <v>0.0254</v>
+        <v>0.0207</v>
       </c>
       <c r="E60">
-        <v>0.0224</v>
+        <v>0.0177</v>
       </c>
       <c r="F60">
         <v>0.0125</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>59.96658168915171</v>
+        <v>61.65876530915457</v>
       </c>
       <c r="B61">
         <v>57.249</v>
@@ -1553,10 +1553,10 @@
         <v>64.32770256213593</v>
       </c>
       <c r="D61">
-        <v>-0.0053</v>
+        <v>-0.0074</v>
       </c>
       <c r="E61">
-        <v>-0.0053</v>
+        <v>-0.0074</v>
       </c>
       <c r="F61">
         <v>0.0095</v>

--- a/udregnet dagpenge.xlsx
+++ b/udregnet dagpenge.xlsx
@@ -1,21 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjkss\Desktop\9. semester\Empirisk-SFC-model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1CAC61-E2C5-47E8-AB87-459411E7131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>obs_dp_q</t>
+  </si>
+  <si>
+    <t>max_dp_quarter</t>
+  </si>
+  <si>
+    <t>wage_dp_q</t>
+  </si>
+  <si>
+    <t>tilpas_pr_q</t>
+  </si>
+  <si>
+    <t>stat_tilpas_q</t>
+  </si>
+  <si>
+    <t>stat_reg_q</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +92,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +178,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +230,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,639 +423,656 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>obs_dp_q</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>max_dp_quarter</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>wage_dp_q</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tilpas_pr_q</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>stat_tilpas_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>stat_reg_q</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>42.511</v>
+        <v>42.511000000000003</v>
       </c>
       <c r="B2">
-        <v>42.510654</v>
+        <v>42.510654000000002</v>
       </c>
       <c r="C2">
-        <v>42.511</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>42.511000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>42.511</v>
+        <v>42.511000000000003</v>
       </c>
       <c r="B3">
-        <v>42.510654</v>
+        <v>42.510654000000002</v>
       </c>
       <c r="C3">
-        <v>42.511</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>42.511000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>42.511</v>
+        <v>42.511000000000003</v>
       </c>
       <c r="B4">
-        <v>42.510654</v>
+        <v>42.510654000000002</v>
       </c>
       <c r="C4">
-        <v>42.511</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>42.511000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>44.07540479999999</v>
+        <v>44.075404799999987</v>
       </c>
       <c r="B5">
-        <v>43.355667</v>
+        <v>43.355666999999997</v>
       </c>
       <c r="C5">
-        <v>44.466506</v>
+        <v>44.466506000000003</v>
       </c>
       <c r="D5">
-        <v>0.0198</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="E5">
-        <v>0.0168</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="F5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>44.07540479999999</v>
+        <v>44.075404799999987</v>
       </c>
       <c r="B6">
-        <v>43.355667</v>
+        <v>43.355666999999997</v>
       </c>
       <c r="C6">
-        <v>44.466506</v>
+        <v>44.466506000000003</v>
       </c>
       <c r="D6">
-        <v>0.0198</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="E6">
-        <v>0.0168</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="F6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>44.07540479999999</v>
+        <v>44.075404799999987</v>
       </c>
       <c r="B7">
-        <v>43.355667</v>
+        <v>43.355666999999997</v>
       </c>
       <c r="C7">
-        <v>44.466506</v>
+        <v>44.466506000000003</v>
       </c>
       <c r="D7">
-        <v>0.0198</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="E7">
-        <v>0.0168</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="F7">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>44.07540479999999</v>
+        <v>44.075404799999987</v>
       </c>
       <c r="B8">
-        <v>43.355667</v>
+        <v>43.355666999999997</v>
       </c>
       <c r="C8">
-        <v>44.466506</v>
+        <v>44.466506000000003</v>
       </c>
       <c r="D8">
-        <v>0.0198</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="E8">
-        <v>0.0168</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="F8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>45.50365366875999</v>
+        <v>45.503653668759988</v>
       </c>
       <c r="B9">
-        <v>44.39568300000001</v>
+        <v>44.395683000000012</v>
       </c>
       <c r="C9">
-        <v>46.70782365564</v>
+        <v>46.707823655639999</v>
       </c>
       <c r="D9">
-        <v>0.0155</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E9">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F9">
         <v>0.02</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>45.50365366875999</v>
+        <v>45.503653668759988</v>
       </c>
       <c r="B10">
-        <v>44.39568300000001</v>
+        <v>44.395683000000012</v>
       </c>
       <c r="C10">
-        <v>46.70782365564</v>
+        <v>46.707823655639999</v>
       </c>
       <c r="D10">
-        <v>0.0155</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E10">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>45.50365366875999</v>
+        <v>45.503653668759988</v>
       </c>
       <c r="B11">
-        <v>44.39568300000001</v>
+        <v>44.395683000000012</v>
       </c>
       <c r="C11">
-        <v>46.70782365564</v>
+        <v>46.707823655639999</v>
       </c>
       <c r="D11">
-        <v>0.0155</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E11">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F11">
         <v>0.02</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>45.50365366875999</v>
+        <v>45.503653668759988</v>
       </c>
       <c r="B12">
-        <v>44.39568300000001</v>
+        <v>44.395683000000012</v>
       </c>
       <c r="C12">
-        <v>46.70782365564</v>
+        <v>46.707823655639999</v>
       </c>
       <c r="D12">
-        <v>0.0155</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E12">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F12">
         <v>0.02</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>47.46134616354988</v>
+        <v>47.461346163549877</v>
       </c>
       <c r="B13">
-        <v>45.69570300000001</v>
+        <v>45.695703000000009</v>
       </c>
       <c r="C13">
-        <v>49.05729270334436</v>
+        <v>49.057292703344359</v>
       </c>
       <c r="D13">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F13">
         <v>0.02</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>47.46134616354988</v>
+        <v>47.461346163549877</v>
       </c>
       <c r="B14">
-        <v>45.69570300000001</v>
+        <v>45.695703000000009</v>
       </c>
       <c r="C14">
-        <v>49.05729270334436</v>
+        <v>49.057292703344359</v>
       </c>
       <c r="D14">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E14">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F14">
         <v>0.02</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>47.46134616354988</v>
+        <v>47.461346163549877</v>
       </c>
       <c r="B15">
-        <v>45.69570300000001</v>
+        <v>45.695703000000009</v>
       </c>
       <c r="C15">
-        <v>49.05729270334436</v>
+        <v>49.057292703344359</v>
       </c>
       <c r="D15">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E15">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F15">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>47.46134616354988</v>
+        <v>47.461346163549877</v>
       </c>
       <c r="B16">
-        <v>45.69570300000001</v>
+        <v>45.695703000000009</v>
       </c>
       <c r="C16">
-        <v>49.05729270334436</v>
+        <v>49.057292703344359</v>
       </c>
       <c r="D16">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F16">
         <v>0.02</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>49.71273236537542</v>
+        <v>49.712732365375423</v>
       </c>
       <c r="B17">
-        <v>47.124</v>
+        <v>47.124000000000002</v>
       </c>
       <c r="C17">
-        <v>50.79225211427597</v>
+        <v>50.792252114275968</v>
       </c>
       <c r="D17">
-        <v>0.0304</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E17">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>49.71273236537542</v>
+        <v>49.712732365375423</v>
       </c>
       <c r="B18">
-        <v>47.124</v>
+        <v>47.124000000000002</v>
       </c>
       <c r="C18">
-        <v>50.79225211427597</v>
+        <v>50.792252114275968</v>
       </c>
       <c r="D18">
-        <v>0.0304</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E18">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F18">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>49.71273236537542</v>
+        <v>49.712732365375423</v>
       </c>
       <c r="B19">
-        <v>47.124</v>
+        <v>47.124000000000002</v>
       </c>
       <c r="C19">
-        <v>50.79225211427597</v>
+        <v>50.792252114275968</v>
       </c>
       <c r="D19">
-        <v>0.0304</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E19">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F19">
         <v>0.02</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>49.71273236537542</v>
+        <v>49.712732365375423</v>
       </c>
       <c r="B20">
-        <v>47.124</v>
+        <v>47.124000000000002</v>
       </c>
       <c r="C20">
-        <v>50.79225211427597</v>
+        <v>50.792252114275968</v>
       </c>
       <c r="D20">
-        <v>0.0304</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E20">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F20">
         <v>0.02</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>52.07019305140606</v>
+        <v>52.070193051406058</v>
       </c>
       <c r="B21">
-        <v>48.879</v>
+        <v>48.878999999999998</v>
       </c>
       <c r="C21">
-        <v>52.59731662172928</v>
+        <v>52.597316621729277</v>
       </c>
       <c r="D21">
-        <v>0.0304</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E21">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F21">
         <v>0.02</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>52.07019305140606</v>
+        <v>52.070193051406058</v>
       </c>
       <c r="B22">
-        <v>48.879</v>
+        <v>48.878999999999998</v>
       </c>
       <c r="C22">
-        <v>52.59731662172928</v>
+        <v>52.597316621729277</v>
       </c>
       <c r="D22">
-        <v>0.0304</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E22">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F22">
         <v>0.02</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>52.07019305140606</v>
+        <v>52.070193051406058</v>
       </c>
       <c r="B23">
-        <v>48.879</v>
+        <v>48.878999999999998</v>
       </c>
       <c r="C23">
-        <v>52.59731662172928</v>
+        <v>52.597316621729277</v>
       </c>
       <c r="D23">
-        <v>0.0304</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E23">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>52.07019305140606</v>
+        <v>52.070193051406058</v>
       </c>
       <c r="B24">
-        <v>48.879</v>
+        <v>48.878999999999998</v>
       </c>
       <c r="C24">
-        <v>52.59731662172928</v>
+        <v>52.597316621729277</v>
       </c>
       <c r="D24">
-        <v>0.0304</v>
+        <v>3.04E-2</v>
       </c>
       <c r="E24">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F24">
         <v>0.02</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>53.72794126890716</v>
+        <v>53.727941268907159</v>
       </c>
       <c r="B25">
-        <v>49.791</v>
+        <v>49.790999999999997</v>
       </c>
       <c r="C25">
-        <v>53.69694587071296</v>
+        <v>53.696945870712959</v>
       </c>
       <c r="D25">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E25">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F25">
         <v>0.02</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>53.72794126890716</v>
+        <v>53.727941268907159</v>
       </c>
       <c r="B26">
-        <v>49.791</v>
+        <v>49.790999999999997</v>
       </c>
       <c r="C26">
-        <v>53.69694587071296</v>
+        <v>53.696945870712959</v>
       </c>
       <c r="D26">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E26">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F26">
         <v>0.02</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>53.72794126890716</v>
+        <v>53.727941268907159</v>
       </c>
       <c r="B27">
-        <v>49.791</v>
+        <v>49.790999999999997</v>
       </c>
       <c r="C27">
-        <v>53.69694587071296</v>
+        <v>53.696945870712959</v>
       </c>
       <c r="D27">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E27">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F27">
         <v>0.02</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>53.72794126890716</v>
+        <v>53.727941268907159</v>
       </c>
       <c r="B28">
-        <v>49.791</v>
+        <v>49.790999999999997</v>
       </c>
       <c r="C28">
-        <v>53.69694587071296</v>
+        <v>53.696945870712959</v>
       </c>
       <c r="D28">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E28">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F28">
         <v>0.02</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>55.49130110471737</v>
+        <v>55.491301104717373</v>
       </c>
       <c r="B29">
-        <v>51.219</v>
+        <v>51.219000000000001</v>
       </c>
       <c r="C29">
-        <v>54.63695231847744</v>
+        <v>54.636952318477441</v>
       </c>
       <c r="D29">
-        <v>0.0158</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="E29">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F29">
         <v>0.02</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>55.49130110471737</v>
+        <v>55.491301104717373</v>
       </c>
       <c r="B30">
-        <v>51.219</v>
+        <v>51.219000000000001</v>
       </c>
       <c r="C30">
-        <v>54.63695231847744</v>
+        <v>54.636952318477441</v>
       </c>
       <c r="D30">
-        <v>0.0158</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="E30">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F30">
         <v>0.02</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>55.49130110471737</v>
+        <v>55.491301104717373</v>
       </c>
       <c r="B31">
-        <v>51.219</v>
+        <v>51.219000000000001</v>
       </c>
       <c r="C31">
-        <v>54.63695231847744</v>
+        <v>54.636952318477441</v>
       </c>
       <c r="D31">
-        <v>0.0158</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="E31">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F31">
         <v>0.02</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>55.49130110471737</v>
+        <v>55.491301104717373</v>
       </c>
       <c r="B32">
-        <v>51.219</v>
+        <v>51.219000000000001</v>
       </c>
       <c r="C32">
-        <v>54.63695231847744</v>
+        <v>54.636952318477441</v>
       </c>
       <c r="D32">
-        <v>0.0158</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="E32">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F32">
         <v>0.02</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>56.63120107810186</v>
       </c>
@@ -990,10 +1080,10 @@
         <v>52.065801</v>
       </c>
       <c r="C33">
-        <v>55.67670412872289</v>
+        <v>55.676704128722889</v>
       </c>
       <c r="D33">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1002,7 +1092,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>56.63120107810186</v>
       </c>
@@ -1010,10 +1100,10 @@
         <v>52.065801</v>
       </c>
       <c r="C34">
-        <v>55.67670412872289</v>
+        <v>55.676704128722889</v>
       </c>
       <c r="D34">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1022,7 +1112,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56.63120107810186</v>
       </c>
@@ -1030,10 +1120,10 @@
         <v>52.065801</v>
       </c>
       <c r="C35">
-        <v>55.67670412872289</v>
+        <v>55.676704128722889</v>
       </c>
       <c r="D35">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1042,7 +1132,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>56.63120107810186</v>
       </c>
@@ -1050,10 +1140,10 @@
         <v>52.065801</v>
       </c>
       <c r="C36">
-        <v>55.67670412872289</v>
+        <v>55.676704128722889</v>
       </c>
       <c r="D36">
-        <v>0.0005999999999999999</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1062,504 +1152,504 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>57.58641508033809</v>
+        <v>57.586415080338092</v>
       </c>
       <c r="B37">
-        <v>52.975815</v>
+        <v>52.975814999999997</v>
       </c>
       <c r="C37">
-        <v>57.636543497343</v>
+        <v>57.636543497342998</v>
       </c>
       <c r="D37">
-        <v>-0.0029</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E37">
-        <v>-0.0029</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="F37">
         <v>0.02</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>57.58641508033809</v>
+        <v>57.586415080338092</v>
       </c>
       <c r="B38">
-        <v>52.975815</v>
+        <v>52.975814999999997</v>
       </c>
       <c r="C38">
-        <v>57.636543497343</v>
+        <v>57.636543497342998</v>
       </c>
       <c r="D38">
-        <v>-0.0029</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E38">
-        <v>-0.0029</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="F38">
         <v>0.02</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>57.58641508033809</v>
+        <v>57.586415080338092</v>
       </c>
       <c r="B39">
-        <v>52.975815</v>
+        <v>52.975814999999997</v>
       </c>
       <c r="C39">
-        <v>57.636543497343</v>
+        <v>57.636543497342998</v>
       </c>
       <c r="D39">
-        <v>-0.0029</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E39">
-        <v>-0.0029</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="F39">
         <v>0.02</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>57.58641508033809</v>
+        <v>57.586415080338092</v>
       </c>
       <c r="B40">
-        <v>52.975815</v>
+        <v>52.975814999999997</v>
       </c>
       <c r="C40">
-        <v>57.636543497343</v>
+        <v>57.636543497342998</v>
       </c>
       <c r="D40">
-        <v>-0.0029</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="E40">
-        <v>-0.0029</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="F40">
         <v>0.02</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>58.70344841163474</v>
+        <v>58.703448411634739</v>
       </c>
       <c r="B41">
-        <v>53.755827</v>
+        <v>53.755826999999996</v>
       </c>
       <c r="C41">
-        <v>57.52068927572657</v>
+        <v>57.520689275726568</v>
       </c>
       <c r="D41">
-        <v>-0.0012</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>-0.0012</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F41">
         <v>0.02</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>58.70344841163474</v>
+        <v>58.703448411634739</v>
       </c>
       <c r="B42">
-        <v>53.755827</v>
+        <v>53.755826999999996</v>
       </c>
       <c r="C42">
-        <v>57.52068927572657</v>
+        <v>57.520689275726568</v>
       </c>
       <c r="D42">
-        <v>-0.0012</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E42">
-        <v>-0.0012</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F42">
         <v>0.02</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>58.70344841163474</v>
+        <v>58.703448411634739</v>
       </c>
       <c r="B43">
-        <v>53.755827</v>
+        <v>53.755826999999996</v>
       </c>
       <c r="C43">
-        <v>57.52068927572657</v>
+        <v>57.520689275726568</v>
       </c>
       <c r="D43">
-        <v>-0.0012</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E43">
-        <v>-0.0012</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F43">
         <v>0.02</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>58.70344841163474</v>
+        <v>58.703448411634739</v>
       </c>
       <c r="B44">
-        <v>53.755827</v>
+        <v>53.755826999999996</v>
       </c>
       <c r="C44">
-        <v>57.52068927572657</v>
+        <v>57.520689275726568</v>
       </c>
       <c r="D44">
-        <v>-0.0012</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E44">
-        <v>-0.0012</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F44">
         <v>0.02</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>60.24260221556173</v>
+        <v>60.242602215561732</v>
       </c>
       <c r="B45">
-        <v>54.339</v>
+        <v>54.338999999999999</v>
       </c>
       <c r="C45">
-        <v>57.78558509495009</v>
+        <v>57.785585094950093</v>
       </c>
       <c r="D45">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E45">
-        <v>0.0124</v>
+        <v>1.24E-2</v>
       </c>
       <c r="F45">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>60.24260221556173</v>
+        <v>60.242602215561732</v>
       </c>
       <c r="B46">
-        <v>54.339</v>
+        <v>54.338999999999999</v>
       </c>
       <c r="C46">
-        <v>57.78558509495009</v>
+        <v>57.785585094950093</v>
       </c>
       <c r="D46">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E46">
-        <v>0.0124</v>
+        <v>1.24E-2</v>
       </c>
       <c r="F46">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>60.24260221556173</v>
+        <v>60.242602215561732</v>
       </c>
       <c r="B47">
-        <v>54.339</v>
+        <v>54.338999999999999</v>
       </c>
       <c r="C47">
-        <v>57.78558509495009</v>
+        <v>57.785585094950093</v>
       </c>
       <c r="D47">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E47">
-        <v>0.0124</v>
+        <v>1.24E-2</v>
       </c>
       <c r="F47">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>60.24260221556173</v>
+        <v>60.242602215561732</v>
       </c>
       <c r="B48">
-        <v>54.339</v>
+        <v>54.338999999999999</v>
       </c>
       <c r="C48">
-        <v>57.78558509495009</v>
+        <v>57.785585094950093</v>
       </c>
       <c r="D48">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E48">
-        <v>0.0124</v>
+        <v>1.24E-2</v>
       </c>
       <c r="F48">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>59.9081375527332</v>
+        <v>59.908137552733201</v>
       </c>
       <c r="B49">
-        <v>55.209</v>
+        <v>55.209000000000003</v>
       </c>
       <c r="C49">
-        <v>60.11806511044952</v>
+        <v>60.118065110449521</v>
       </c>
       <c r="D49">
-        <v>-0.0221</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="E49">
-        <v>-0.0221</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="F49">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>59.9081375527332</v>
+        <v>59.908137552733201</v>
       </c>
       <c r="B50">
-        <v>55.209</v>
+        <v>55.209000000000003</v>
       </c>
       <c r="C50">
-        <v>60.11806511044952</v>
+        <v>60.118065110449521</v>
       </c>
       <c r="D50">
-        <v>-0.0221</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="E50">
-        <v>-0.0221</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="F50">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>59.9081375527332</v>
+        <v>59.908137552733201</v>
       </c>
       <c r="B51">
-        <v>55.209</v>
+        <v>55.209000000000003</v>
       </c>
       <c r="C51">
-        <v>60.11806511044952</v>
+        <v>60.118065110449521</v>
       </c>
       <c r="D51">
-        <v>-0.0221</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="E51">
-        <v>-0.0221</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="F51">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>59.9081375527332</v>
+        <v>59.908137552733201</v>
       </c>
       <c r="B52">
-        <v>55.209</v>
+        <v>55.209000000000003</v>
       </c>
       <c r="C52">
-        <v>60.11806511044952</v>
+        <v>60.118065110449521</v>
       </c>
       <c r="D52">
-        <v>-0.0221</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="E52">
-        <v>-0.0221</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="F52">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>59.72658989814961</v>
+        <v>59.726589898149612</v>
       </c>
       <c r="B53">
-        <v>55.899</v>
+        <v>55.899000000000001</v>
       </c>
       <c r="C53">
-        <v>60.87119275285767</v>
+        <v>60.871192752857667</v>
       </c>
       <c r="D53">
-        <v>-0.0166</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="E53">
-        <v>-0.0166</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="F53">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>59.72658989814961</v>
+        <v>59.726589898149612</v>
       </c>
       <c r="B54">
-        <v>55.899</v>
+        <v>55.899000000000001</v>
       </c>
       <c r="C54">
-        <v>60.87119275285767</v>
+        <v>60.871192752857667</v>
       </c>
       <c r="D54">
-        <v>-0.0166</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="E54">
-        <v>-0.0166</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="F54">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>59.72658989814961</v>
+        <v>59.726589898149612</v>
       </c>
       <c r="B55">
-        <v>55.899</v>
+        <v>55.899000000000001</v>
       </c>
       <c r="C55">
-        <v>60.87119275285767</v>
+        <v>60.871192752857667</v>
       </c>
       <c r="D55">
-        <v>-0.0166</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="E55">
-        <v>-0.0166</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="F55">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>59.72658989814961</v>
+        <v>59.726589898149612</v>
       </c>
       <c r="B56">
-        <v>55.899</v>
+        <v>55.899000000000001</v>
       </c>
       <c r="C56">
-        <v>60.87119275285767</v>
+        <v>60.871192752857667</v>
       </c>
       <c r="D56">
-        <v>-0.0166</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="E56">
-        <v>-0.0166</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="F56">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>61.4767909396051</v>
+        <v>61.476790939605102</v>
       </c>
       <c r="B57">
-        <v>56.598</v>
+        <v>56.597999999999999</v>
       </c>
       <c r="C57">
-        <v>62.23556827461719</v>
+        <v>62.235568274617187</v>
       </c>
       <c r="D57">
-        <v>0.0207</v>
+        <v>2.07E-2</v>
       </c>
       <c r="E57">
-        <v>0.0177</v>
+        <v>1.77E-2</v>
       </c>
       <c r="F57">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>61.4767909396051</v>
+        <v>61.476790939605102</v>
       </c>
       <c r="B58">
-        <v>56.598</v>
+        <v>56.597999999999999</v>
       </c>
       <c r="C58">
-        <v>62.23556827461719</v>
+        <v>62.235568274617187</v>
       </c>
       <c r="D58">
-        <v>0.0207</v>
+        <v>2.07E-2</v>
       </c>
       <c r="E58">
-        <v>0.0177</v>
+        <v>1.77E-2</v>
       </c>
       <c r="F58">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>61.4767909396051</v>
+        <v>61.476790939605102</v>
       </c>
       <c r="B59">
-        <v>56.598</v>
+        <v>56.597999999999999</v>
       </c>
       <c r="C59">
-        <v>62.23556827461719</v>
+        <v>62.235568274617187</v>
       </c>
       <c r="D59">
-        <v>0.0207</v>
+        <v>2.07E-2</v>
       </c>
       <c r="E59">
-        <v>0.0177</v>
+        <v>1.77E-2</v>
       </c>
       <c r="F59">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>61.4767909396051</v>
+        <v>61.476790939605102</v>
       </c>
       <c r="B60">
-        <v>56.598</v>
+        <v>56.597999999999999</v>
       </c>
       <c r="C60">
-        <v>62.23556827461719</v>
+        <v>62.235568274617187</v>
       </c>
       <c r="D60">
-        <v>0.0207</v>
+        <v>2.07E-2</v>
       </c>
       <c r="E60">
-        <v>0.0177</v>
+        <v>1.77E-2</v>
       </c>
       <c r="F60">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61.65876530915457</v>
+        <v>61.658765309154568</v>
       </c>
       <c r="B61">
-        <v>57.249</v>
+        <v>57.249000000000002</v>
       </c>
       <c r="C61">
-        <v>64.32770256213593</v>
+        <v>64.327702562135926</v>
       </c>
       <c r="D61">
-        <v>-0.0074</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="E61">
-        <v>-0.0074</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="F61">
-        <v>0.0095</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
   </sheetData>
